--- a/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A/Synapse_Workflow/4.33/accreditamento-checklist_V8.1.3.xlsx
+++ b/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A/Synapse_Workflow/4.33/accreditamento-checklist_V8.1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\502754\Documents\NetBeansProjects\accredRSA\it-fse-accreditamento\GATEWAY\A1#111FUJIFILM000\Fujifilm_Italia_S.p.A\Synapse_Workflow_RSA\4.33\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2A7012-5878-4679-91B0-F8D9E65FEA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E52DDA-7EF1-468A-83BE-3F633DE312F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -812,106 +812,10 @@
     <t>subject_application_version: 4.33</t>
   </si>
   <si>
-    <t>431dc3b1f8242e93</t>
-  </si>
-  <si>
-    <t>2024-02-16T14:34:16.613Z[UTC]</t>
-  </si>
-  <si>
-    <t>4b270c3c340b168a</t>
-  </si>
-  <si>
-    <t>2024-02-16T14:34:31.015Z[UTC]</t>
-  </si>
-  <si>
-    <t>470df727a15d3763</t>
-  </si>
-  <si>
-    <t>2024-02-16T14:34:31.676Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180205.4.4.28a61e23ab293f54663cf1977d8c9a034531e7f8bc589e242f74a5c9245ab86a.cad1414b45^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d8365b7d2d92b8d8</t>
-  </si>
-  <si>
-    <t>2024-02-16T14:34:18.26Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180205.4.4.28a61e23ab293f54663cf1977d8c9a034531e7f8bc589e242f74a5c9245ab86a.68b885b739^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>5c30a299b35e8571</t>
-  </si>
-  <si>
-    <t>2024-02-16T14:34:19.761Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180205.4.4.28a61e23ab293f54663cf1977d8c9a034531e7f8bc589e242f74a5c9245ab86a.5516d43f0a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>0db586a8f5a7ea36</t>
-  </si>
-  <si>
-    <t>2024-02-16T14:34:21.252Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180205.4.4.28a61e23ab293f54663cf1977d8c9a034531e7f8bc589e242f74a5c9245ab86a.e749af9577^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>192f70db8fce3704</t>
-  </si>
-  <si>
-    <t>2024-02-16T14:34:22.581Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180205.4.4.28a61e23ab293f54663cf1977d8c9a034531e7f8bc589e242f74a5c9245ab86a.9a37fc807f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>fbf5b8fb9c466bd2</t>
-  </si>
-  <si>
     <t>2024-02-16T14:34:23.882Z[UTC]</t>
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.180205.4.4.28a61e23ab293f54663cf1977d8c9a034531e7f8bc589e242f74a5c9245ab86a.487e74087b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>fefc95f4a6690ccf</t>
-  </si>
-  <si>
-    <t>2024-02-16T14:34:25.048Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180205.4.4.28a61e23ab293f54663cf1977d8c9a034531e7f8bc589e242f74a5c9245ab86a.7cf15e3c2b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>76b031580a349c9f</t>
-  </si>
-  <si>
-    <t>2024-02-16T14:34:26.295Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180205.4.4.28a61e23ab293f54663cf1977d8c9a034531e7f8bc589e242f74a5c9245ab86a.3d68c31a0c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>799435e76be394ee</t>
-  </si>
-  <si>
-    <t>2024-02-16T14:34:27.536Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180205.4.4.28a61e23ab293f54663cf1977d8c9a034531e7f8bc589e242f74a5c9245ab86a.1bc9fe1c83^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e10e66a25e9a1ade</t>
-  </si>
-  <si>
-    <t>2024-02-16T14:34:28.679Z[UTC]</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.180205.4.4.28a61e23ab293f54663cf1977d8c9a034531e7f8bc589e242f74a5c9245ab86a.03f46c9d17^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT1</t>
@@ -1329,6 +1233,102 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.dcf0d5921a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>156aef832491deea</t>
+  </si>
+  <si>
+    <t>2024-03-01T10:27:23.931Z[UTC]</t>
+  </si>
+  <si>
+    <t>f80e04de0089ce91</t>
+  </si>
+  <si>
+    <t>2024-03-01T10:27:47.845Z[UTC]</t>
+  </si>
+  <si>
+    <t>df8bf842a188aec0</t>
+  </si>
+  <si>
+    <t>2024-03-01T10:27:48.841Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.0ae88a4042^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>40e95dd296d5b7e8</t>
+  </si>
+  <si>
+    <t>2024-03-01T10:27:26.105Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.affcefa261^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>a27302a38b6b3535</t>
+  </si>
+  <si>
+    <t>2024-03-01T10:27:28.462Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.6fe3e287a2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f7d525377096a5ac</t>
+  </si>
+  <si>
+    <t>2024-03-01T10:27:30.575Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.11ad4921ad^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>1006d1924d20900e</t>
+  </si>
+  <si>
+    <t>2024-03-01T10:27:32.711Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.8f3d339aeb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>3f28857501e0e0c6</t>
+  </si>
+  <si>
+    <t>c59effde8ce5342d</t>
+  </si>
+  <si>
+    <t>2024-03-01T10:27:37.399Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.724b058863^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6de7eb9abf5d5ec4</t>
+  </si>
+  <si>
+    <t>2024-03-01T10:27:39.44Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.e7e4dc0fe3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>8b1e5dfb1cdadd18</t>
+  </si>
+  <si>
+    <t>2024-03-01T10:27:41.468Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.c9f3327ddf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>3ce7aad9413b2990</t>
+  </si>
+  <si>
+    <t>2024-03-01T10:27:43.726Z[UTC]</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.18462944b1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"</t>
   </si>
 </sst>
 </file>
@@ -4296,10 +4296,10 @@
   <dimension ref="A1:T652"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="I28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4574,10 +4574,10 @@
         <v>45338</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>178</v>
+        <v>277</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>177</v>
+        <v>276</v>
       </c>
       <c r="I10" s="34" t="s">
         <v>164</v>
@@ -4628,10 +4628,10 @@
         <v>45338</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>180</v>
+        <v>279</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>179</v>
+        <v>278</v>
       </c>
       <c r="I11" s="24" t="s">
         <v>164</v>
@@ -4732,13 +4732,13 @@
         <v>45338</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>182</v>
+        <v>281</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>181</v>
+        <v>280</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>183</v>
+        <v>282</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>59</v>
@@ -4938,13 +4938,13 @@
         <v>45338</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>185</v>
+        <v>284</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>184</v>
+        <v>283</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>186</v>
+        <v>285</v>
       </c>
       <c r="J18" s="25" t="s">
         <v>59</v>
@@ -4992,13 +4992,13 @@
         <v>45338</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>188</v>
+        <v>287</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>187</v>
+        <v>286</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>189</v>
+        <v>288</v>
       </c>
       <c r="J19" s="25" t="s">
         <v>59</v>
@@ -5046,13 +5046,13 @@
         <v>45338</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>191</v>
+        <v>290</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>190</v>
+        <v>289</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="J20" s="25" t="s">
         <v>59</v>
@@ -5100,13 +5100,13 @@
         <v>45338</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>194</v>
+        <v>293</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>193</v>
+        <v>292</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>195</v>
+        <v>294</v>
       </c>
       <c r="J21" s="25" t="s">
         <v>59</v>
@@ -5154,13 +5154,13 @@
         <v>45338</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H22" s="24" t="s">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="J22" s="25" t="s">
         <v>59</v>
@@ -5208,13 +5208,13 @@
         <v>45338</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>200</v>
+        <v>297</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>199</v>
+        <v>296</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>201</v>
+        <v>298</v>
       </c>
       <c r="J23" s="25" t="s">
         <v>59</v>
@@ -5262,13 +5262,13 @@
         <v>45338</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>202</v>
+        <v>299</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>204</v>
+        <v>301</v>
       </c>
       <c r="J24" s="25" t="s">
         <v>59</v>
@@ -5316,13 +5316,13 @@
         <v>45338</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>206</v>
+        <v>303</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>205</v>
+        <v>302</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>207</v>
+        <v>304</v>
       </c>
       <c r="J25" s="25" t="s">
         <v>59</v>
@@ -5370,13 +5370,13 @@
         <v>45338</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>210</v>
+        <v>307</v>
       </c>
       <c r="J26" s="25" t="s">
         <v>59</v>
@@ -5757,22 +5757,22 @@
         <v>47</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="F36" s="38">
         <v>45342</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="H36" s="39" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="I36" s="39" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="J36" s="34" t="s">
         <v>59</v>
@@ -5801,22 +5801,22 @@
         <v>47</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="F37" s="38">
         <v>45342</v>
       </c>
       <c r="G37" s="39" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="H37" s="39" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="J37" s="34" t="s">
         <v>59</v>
@@ -5845,10 +5845,10 @@
         <v>47</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="39"/>
@@ -5858,7 +5858,7 @@
         <v>160</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="L38" s="34"/>
       <c r="M38" s="34"/>
@@ -5883,10 +5883,10 @@
         <v>47</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="39"/>
@@ -5896,7 +5896,7 @@
         <v>160</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="L39" s="34"/>
       <c r="M39" s="34"/>
@@ -5921,19 +5921,19 @@
         <v>47</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="F40" s="38">
         <v>45342</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="H40" s="39" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="I40" s="39" t="s">
         <v>164</v>
@@ -5975,19 +5975,19 @@
         <v>47</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
       <c r="F41" s="38">
         <v>45342</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="H41" s="39" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="I41" s="39" t="s">
         <v>164</v>
@@ -6029,10 +6029,10 @@
         <v>47</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="F42" s="38">
         <v>45342</v>
@@ -6079,10 +6079,10 @@
         <v>47</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="39"/>
@@ -6104,7 +6104,7 @@
       <c r="Q43" s="34"/>
       <c r="R43" s="40"/>
       <c r="S43" s="44" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="T43" s="42" t="s">
         <v>51</v>
@@ -6121,22 +6121,22 @@
         <v>47</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="F44" s="38">
         <v>45342</v>
       </c>
       <c r="G44" s="39" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="H44" s="39" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="I44" s="39" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="J44" s="34" t="s">
         <v>59</v>
@@ -6175,22 +6175,22 @@
         <v>47</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="F45" s="38">
         <v>45342</v>
       </c>
       <c r="G45" s="39" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="H45" s="39" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="I45" s="39" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="J45" s="34" t="s">
         <v>59</v>
@@ -6229,22 +6229,22 @@
         <v>47</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="E46" s="37" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="F46" s="38">
         <v>45342</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="H46" s="39" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="I46" s="39" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="J46" s="34" t="s">
         <v>59</v>
@@ -6283,22 +6283,22 @@
         <v>47</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="F47" s="38">
         <v>45342</v>
       </c>
       <c r="G47" s="39" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="H47" s="39" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="I47" s="39" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="J47" s="34" t="s">
         <v>59</v>
@@ -6337,22 +6337,22 @@
         <v>47</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="F48" s="38">
         <v>45342</v>
       </c>
       <c r="G48" s="39" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="H48" s="39" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="I48" s="39" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="J48" s="34" t="s">
         <v>59</v>
@@ -6391,22 +6391,22 @@
         <v>47</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="E49" s="37" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="F49" s="38">
         <v>45342</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="I49" s="39" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="J49" s="34" t="s">
         <v>59</v>
@@ -6445,22 +6445,22 @@
         <v>47</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>241</v>
+        <v>209</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="F50" s="38">
         <v>45342</v>
       </c>
       <c r="G50" s="39" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="H50" s="39" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="I50" s="39" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="J50" s="34" t="s">
         <v>59</v>
@@ -6499,22 +6499,22 @@
         <v>47</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="F51" s="38">
         <v>45342</v>
       </c>
       <c r="G51" s="39" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="H51" s="39" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="I51" s="39" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="J51" s="34" t="s">
         <v>59</v>
@@ -6553,22 +6553,22 @@
         <v>47</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="F52" s="38">
         <v>45342</v>
       </c>
       <c r="G52" s="39" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="H52" s="39" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="I52" s="39" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="J52" s="34" t="s">
         <v>59</v>
@@ -6607,10 +6607,10 @@
         <v>47</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="39"/>
@@ -6647,10 +6647,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="F54" s="38"/>
       <c r="G54" s="39"/>
@@ -6660,7 +6660,7 @@
         <v>160</v>
       </c>
       <c r="K54" s="34" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="L54" s="34"/>
       <c r="M54" s="34" t="s">
@@ -6687,10 +6687,10 @@
         <v>47</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="F55" s="38"/>
       <c r="G55" s="39"/>
@@ -6700,7 +6700,7 @@
         <v>160</v>
       </c>
       <c r="K55" s="34" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="L55" s="34"/>
       <c r="M55" s="34" t="s">
@@ -6727,10 +6727,10 @@
         <v>47</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="F56" s="38"/>
       <c r="G56" s="39"/>
@@ -6767,10 +6767,10 @@
         <v>47</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="F57" s="38"/>
       <c r="G57" s="39"/>
@@ -6807,10 +6807,10 @@
         <v>47</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="F58" s="38"/>
       <c r="G58" s="39"/>
@@ -6847,10 +6847,10 @@
         <v>47</v>
       </c>
       <c r="D59" s="36" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="F59" s="38"/>
       <c r="G59" s="39"/>
@@ -6887,10 +6887,10 @@
         <v>47</v>
       </c>
       <c r="D60" s="36" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="F60" s="38"/>
       <c r="G60" s="39"/>
@@ -6900,7 +6900,7 @@
         <v>160</v>
       </c>
       <c r="K60" s="34" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="L60" s="34"/>
       <c r="M60" s="34" t="s">
@@ -6927,22 +6927,22 @@
         <v>47</v>
       </c>
       <c r="D61" s="36" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="F61" s="38">
         <v>45342</v>
       </c>
       <c r="G61" s="39" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="H61" s="39" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="I61" s="39" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="J61" s="34" t="s">
         <v>59</v>

--- a/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A/Synapse_Workflow/4.33/accreditamento-checklist_V8.1.3.xlsx
+++ b/GATEWAY/A1#111FUJIFILM000/Fujifilm_Italia_S.p.A/Synapse_Workflow/4.33/accreditamento-checklist_V8.1.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\502754\Documents\NetBeansProjects\accredRSA\it-fse-accreditamento\GATEWAY\A1#111FUJIFILM000\Fujifilm_Italia_S.p.A\Synapse_Workflow_RSA\4.33\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E52DDA-7EF1-468A-83BE-3F633DE312F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70720D3-8D12-49D7-A974-5B90B59EA4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="309">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1329,6 +1329,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.180205.4.4.807a44951e0d56c01b94e8bf6278bab5fd76ac092581dde9b0f28bf73f53adf5.18462944b1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"</t>
+  </si>
+  <si>
+    <t>Il test non è supportato in quanto l'applicazione non gestisce la codifica del quesito diagnostico (ICD9-CM) che si tradurrebbe nel CDA nella sezione &lt;entry&gt;/&lt;observation&gt;, ma solo il QD Testuale.</t>
   </si>
 </sst>
 </file>
@@ -4296,10 +4299,10 @@
   <dimension ref="A1:T652"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5694,7 +5697,7 @@
         <v>160</v>
       </c>
       <c r="K34" s="25" t="s">
-        <v>173</v>
+        <v>308</v>
       </c>
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
